--- a/Applications/MNIST/Step03_TrainNeuralNetwork/trainingPerformance.xlsx
+++ b/Applications/MNIST/Step03_TrainNeuralNetwork/trainingPerformance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step03_TrainNeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D2246B-0317-4D64-8B35-62C6239FF601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752716C2-6531-4B1E-A95F-A79EEAA87B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="HyperparameterSurveys" sheetId="1" r:id="rId1"/>
@@ -224,10 +224,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +545,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,17 +562,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
